--- a/srt/video.xlsx
+++ b/srt/video.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\eogasawara\mylibrary\srt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6069BF55-B924-4921-A78D-16480D9E8C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C1B27-049A-4BA0-8960-75B23AE39930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Duração</t>
   </si>
@@ -31,22 +31,137 @@
     <t>Inglês</t>
   </si>
   <si>
-    <t>Ele foi desenvolvido por meio da colaboração entre CEFET/RJ, LNCC e INRIA.</t>
-  </si>
-  <si>
-    <t>Ao final desta apresentação, você verá como o DAL Toolbox pode acelerar a pesquisa.</t>
-  </si>
-  <si>
-    <t>This presentation introduces the DAL Toolbox.</t>
-  </si>
-  <si>
-    <t>It was developed through collaboration between CEFET/RJ, LNCC and INRIA.</t>
-  </si>
-  <si>
-    <t>By the end of this talk, you will see how DAL Toolbox can accelerate research.</t>
-  </si>
-  <si>
     <t>This presentation introduces DAL Toolbox, a comprehensive open-source library designed to make data analytics workflows more modular, transparent, and reproducible._x000B_It was developed through collaboration between CEFET/RJ, LNCC and INRIA, reflecting an international research effort._x000B_The toolbox is openly available on GitHub, reinforcing its community-driven and academic character._x000B_Our goal here is to explain why DAL Toolbox was created, what problem it solves, and how it supports systematic experimentation._x000B_The foundation of the toolbox is Experiment Lines, a concept adapted from Software Product Lines._x000B_This framework allows researchers and practitioners to create families of experiments rather than isolated pipelines._x000B_It addresses the critical challenges of modern data analytics: growing complexity, need for reproducibility, and integration across diverse tools._x000B_By the end of this talk, you will see how DAL Toolbox can accelerate research, improve transparency, and support production-level adoption.</t>
+  </si>
+  <si>
+    <t>Today’s data-driven world involves high-frequency and high-volume streams across domains like finance, healthcare, urban mobility, and IoT._x000B_Traditional approaches struggle with the scale and heterogeneity of these datasets._x000B_Constructing workflows that are both complete and reproducible remains a major bottleneck._x000B_A key issue lies in integration: data scientists often juggle multiple libraries with different interfaces and dependencies._x000B_This increases the learning curve and leads to fragmented solutions._x000B_Transparency is another challenge: workflows must be clear and interpretable, not hidden inside opaque pipelines._x000B_Reusability is also essential—components should be easy to transfer between projects._x000B_Finally, workflows must support variability, allowing researchers to try multiple configurations without starting from scratch._x000B_DAL Toolbox was designed precisely to address these pain points.</t>
+  </si>
+  <si>
+    <t>The core innovation of DAL Toolbox is the application of Experiment Lines._x000B_Experiment Lines borrow ideas from Software Product Lines, enabling systematic reuse and controlled variation in workflows._x000B_In practice, this means that each component of a workflow—transformation, modeling, evaluation—can be optional, interchangeable, or parameterized._x000B_This flexibility allows us to configure entire families of experiments from a single base structure._x000B_It fundamentally changes how data scientists explore alternatives: instead of building new pipelines from scratch, they evolve workflows step by step._x000B_Variability and optionality ensure that workflows can adapt to different needs while preserving their core integrity._x000B_The result is more efficient research, reproducibility, and comparability across experiments._x000B_Experiment Lines thus transform workflow design from a rigid process into a systematic and transparent methodology.</t>
+  </si>
+  <si>
+    <t>The architecture of DAL Toolbox follows a modular design with clear separation of concerns._x000B_Each module—transformation, classification, regression, clustering, and visualization—serves a distinct purpose._x000B_Transformations include operations like normalization, scaling, and dimensionality reduction._x000B_Classification and regression modules support supervised learning tasks for both categorical and continuous outputs._x000B_Clustering enables unsupervised discovery of structures and patterns in data._x000B_Visualization tools allow users to interpret results through plots, histograms, scatter plots, and time series analysis._x000B_All modules interoperate seamlessly through a unified API._x000B_This modularity not only simplifies maintenance but also allows easy extension and integration with external libraries such as Scikit-learn.</t>
+  </si>
+  <si>
+    <t>DAL Toolbox offers practical functionality across the entire machine learning pipeline._x000B_For transformations, users can perform min-max scaling, z-score normalization, PCA, and feature selection._x000B_For modeling, the toolbox supports algorithms like KNN, linear regression, Random Forest, and SVM._x000B_Clustering options include K-Means, providing accessible methods for segmentation tasks._x000B_Visualization covers scatter plots for relationships, histograms for distributions, and line plots for time series._x000B_The unified API ensures that switching between models or transformations requires minimal code changes._x000B_This makes experimentation both flexible and consistent._x000B_Overall, DAL Toolbox provides a cohesive set of tools designed to work harmoniously within the Experiment Lines framework.</t>
+  </si>
+  <si>
+    <t>Several well-known platforms already support machine learning workflows, each with strengths and weaknesses._x000B_WEKA and Orange are excellent for education, thanks to user-friendly interfaces, but they lack flexibility for dynamic experiments._x000B_RapidMiner and KNIME provide modular graphical workflows, but their pipelines often sacrifice transparency._x000B_Scikit-learn and Spark MLlib are powerful and widely adopted, yet they lack systematic support for experimentation._x000B_In contrast, DAL Toolbox combines the strengths of transparency, modularity, and systematic variability._x000B_Its foundation on Experiment Lines allows for reproducible comparisons and structured exploration._x000B_This positions DAL Toolbox as a lightweight yet powerful alternative, especially for researchers focused on workflow reproducibility._x000B_It strikes a balance between usability, flexibility, and scientific rigor.</t>
+  </si>
+  <si>
+    <t>The case study illustrates DAL Toolbox in action using meteorological data from Florida airports._x000B_The task was rainfall prediction, leveraging features like temperature, wind speed, humidity, and sky coverage._x000B_The initial baseline used KNN directly on raw features without preprocessing._x000B_Next, SVM was applied with PCA, improving dimensionality reduction and robustness._x000B_The workflow then evolved into a Random Forest classifier with normalization._x000B_Finally, a tuned Random Forest was deployed with hyperparameter optimization._x000B_Each configuration built upon the previous one, showing how Experiment Lines enable systematic workflow evolution._x000B_This case demonstrates the reproducibility and flexibility of DAL Toolbox in real-world data science applications.</t>
+  </si>
+  <si>
+    <t>The performance comparison illustrates how each model iteration contributed to refining the rainfall prediction pipeline._x000B_The baseline KNN classifier was simple and interpretable, but it showed weak predictive accuracy and struggled with noisy data._x000B_The SVM combined with PCA provided significant improvements by reducing dimensionality and capturing non-linear relationships, which led to stronger recall values._x000B_Random Forest introduced an ensemble strategy that balanced precision and recall more effectively, offering a robust middle ground between complexity and performance._x000B_Finally, the tuned Random Forest with optimized hyperparameters achieved the best overall results, with an F1 score of 0.948._x000B_This result demonstrates that systematic exploration through Experiment Lines is far superior to isolated, one-off experiments._x000B_Each step in the workflow was not discarded but built upon the knowledge gained from earlier iterations._x000B_This approach showcases how DAL Toolbox promotes reproducibility: every change, every experiment, is documented and comparable._x000B_The results confirm that Experiment Lines not only improve model accuracy but also accelerate the research process by structuring how alternatives are tested._x000B_In practice, this methodology supports both academic research and industry applications where high performance and reproducibility are essential.</t>
+  </si>
+  <si>
+    <t>DAL Toolbox is more than a standalone library—it is the foundation of an expanding ecosystem._x000B_Its modular design ensures independent components can be reused, modified, and extended._x000B_Transparency is emphasized, with workflows kept explicit and interpretable._x000B_Reusability across projects reduces development time and increases productivity._x000B_Reproducibility ensures consistent results across different teams and contexts._x000B_Beyond the core toolbox, extensions like Harbinger support time series event detection, while TSPredIT focuses on forecasting._x000B_Daltoolboxdp enhances integration with Python-based preprocessing._x000B_Together, these libraries demonstrate how DAL Toolbox supports diverse analytical needs while maintaining a common experimental foundation.</t>
+  </si>
+  <si>
+    <t>DAL Toolbox represents a step forward in addressing reproducibility, transparency, and systematic experimentation in data science._x000B_Its open-source nature encourages community-driven development and adaptation to emerging needs._x000B_For research, it accelerates discovery by reducing the time spent on pipeline construction and debugging._x000B_For industry, it bridges research pipelines with production systems, ensuring smoother transitions._x000B_Its Experiment Lines foundation means workflows are not only reproducible but also systematically variable._x000B_This flexibility is critical for modern machine learning projects that require rapid iteration._x000B_The future lies in expanding adoption, growing the ecosystem, and strengthening integration with other platforms._x000B_The invitation is open: explore the GitHub repository, contribute, and join a community advancing reproducible data science.</t>
+  </si>
+  <si>
+    <t>Esta apresentação introduz o DAL Toolbox, uma biblioteca open-source abrangente, projetada para tornar os fluxos de trabalho em análise de dados mais modulares, transparentes e reprodutíveis.
+Ela foi desenvolvida em colaboração entre o CEFET/RJ, o LNCC e o INRIA, refletindo um esforço de pesquisa internacional.
+A toolbox está disponível abertamente no GitHub, reforçando seu caráter colaborativo e acadêmico.
+Nosso objetivo aqui é explicar por que o DAL Toolbox foi criado, qual problema ele resolve e como apoia a experimentação sistemática.
+A base da toolbox é o conceito de Linhas de Experimentos, adaptado das Linhas de Produto de Software.
+Esse framework permite que pesquisadores e profissionais criem famílias de experimentos, em vez de pipelines isolados.
+Ele aborda os desafios críticos da análise de dados moderna: a crescente complexidade, a necessidade de reprodutibilidade e a integração entre diversas ferramentas.
+Ao final desta apresentação, você verá como o DAL Toolbox pode acelerar a pesquisa, melhorar a transparência e apoiar a adoção em nível de produção.</t>
+  </si>
+  <si>
+    <t>O mundo atual, orientado por dados, envolve fluxos de alta frequência e alto volume em domínios como finanças, saúde, mobilidade urbana e IoT.
+As abordagens tradicionais têm dificuldades em lidar com a escala e a heterogeneidade desses conjuntos de dados.
+A construção de fluxos de trabalho que sejam ao mesmo tempo completos e reprodutíveis continua sendo um grande gargalo.
+Um ponto crítico está na integração: cientistas de dados frequentemente precisam lidar com múltiplas bibliotecas que possuem interfaces e dependências diferentes.
+Isso aumenta a curva de aprendizado e leva a soluções fragmentadas.
+A transparência também é um desafio: os fluxos de trabalho devem ser claros e interpretáveis, e não ficar escondidos dentro de pipelines opacos.
+A reutilização é igualmente essencial — os componentes precisam ser facilmente transferíveis entre projetos.
+Por fim, os fluxos de trabalho devem suportar variabilidade, permitindo que pesquisadores testem múltiplas configurações sem precisar começar do zero.
+O DAL Toolbox foi projetado exatamente para responder a esses pontos críticos.</t>
+  </si>
+  <si>
+    <t>A principal inovação do DAL Toolbox é a aplicação do conceito de Linhas de Experimentos.
+As Linhas de Experimentos se inspiram nas Linhas de Produto de Software, possibilitando a reutilização sistemática e a variação controlada em fluxos de trabalho.
+Na prática, isso significa que cada componente de um fluxo de trabalho — transformação, modelagem, avaliação — pode ser opcional, intercambiável ou parametrizado.
+Essa flexibilidade permite configurar famílias inteiras de experimentos a partir de uma única estrutura-base.
+Isso muda fundamentalmente a forma como cientistas de dados exploram alternativas: em vez de construir novos pipelines do zero, eles evoluem os fluxos de trabalho passo a passo.
+A variabilidade e a opcionalidade garantem que os fluxos de trabalho se adaptem a diferentes necessidades sem perder a integridade central.
+O resultado é uma pesquisa mais eficiente, reprodutível e comparável entre experimentos.
+Assim, as Linhas de Experimentos transformam o design de fluxos de trabalho de um processo rígido em uma metodologia sistemática e transparente.</t>
+  </si>
+  <si>
+    <t>A arquitetura do DAL Toolbox segue um design modular, com clara separação de responsabilidades.
+Cada módulo — transformação, classificação, regressão, agrupamento (clustering) e visualização — cumpre uma função distinta.
+As transformações incluem operações como normalização, escalonamento e redução de dimensionalidade.
+Os módulos de classificação e regressão oferecem suporte a tarefas de aprendizado supervisionado, tanto para saídas categóricas quanto contínuas.
+O módulo de clustering possibilita a descoberta não supervisionada de estruturas e padrões nos dados.
+As ferramentas de visualização permitem interpretar resultados por meio de gráficos, histogramas, diagramas de dispersão e análise de séries temporais.
+Todos os módulos interoperam de forma integrada através de uma API unificada.
+Essa modularidade não apenas simplifica a manutenção, como também facilita a extensão e a integração com bibliotecas externas, como o Scikit-learn.</t>
+  </si>
+  <si>
+    <t>O DAL Toolbox oferece funcionalidades práticas ao longo de todo o pipeline de aprendizado de máquina.
+Para transformações, os usuários podem realizar escalonamento min-max, normalização z-score, análise de componentes principais (PCA) e seleção de atributos.
+Para modelagem, a toolbox suporta algoritmos como KNN, regressão linear, Random Forest e SVM.
+Nas opções de clustering, inclui o K-Means, oferecendo métodos acessíveis para tarefas de segmentação.
+Na parte de visualização, estão disponíveis diagramas de dispersão para analisar relações, histogramas para distribuições e gráficos de linha para séries temporais.
+A API unificada garante que a troca entre modelos ou transformações exija mudanças mínimas de código.
+Isso torna a experimentação ao mesmo tempo flexível e consistente.
+De forma geral, o DAL Toolbox fornece um conjunto coeso de ferramentas, projetadas para funcionar de maneira harmoniosa dentro do framework de Linhas de Experimentos.</t>
+  </si>
+  <si>
+    <t>Diversas plataformas já conhecidas oferecem suporte a fluxos de trabalho em aprendizado de máquina, cada uma com seus pontos fortes e fracos.
+WEKA e Orange são excelentes para fins educacionais, graças às interfaces amigáveis, mas carecem de flexibilidade para experimentos dinâmicos.
+RapidMiner e KNIME fornecem fluxos de trabalho gráficos modulares, porém, seus pipelines muitas vezes sacrificam a transparência.
+Scikit-learn e Spark MLlib são poderosos e amplamente adotados, mas não oferecem suporte sistemático à experimentação.
+Em contraste, o DAL Toolbox combina as forças da transparência, modularidade e variabilidade sistemática.
+Sua base em Linhas de Experimentos permite comparações reprodutíveis e uma exploração estruturada.
+Isso posiciona o DAL Toolbox como uma alternativa leve, mas poderosa, especialmente para pesquisadores focados na reprodutibilidade de fluxos de trabalho.
+Ele encontra um equilíbrio entre usabilidade, flexibilidade e rigor científico.</t>
+  </si>
+  <si>
+    <t>O estudo de caso ilustra o DAL Toolbox em ação utilizando dados meteorológicos de aeroportos da Flórida.
+A tarefa consistiu na previsão de chuvas, explorando variáveis como temperatura, velocidade do vento, umidade e cobertura do céu.
+O baseline inicial utilizou o algoritmo KNN diretamente sobre as variáveis brutas, sem pré-processamento.
+Em seguida, aplicou-se o SVM com PCA, o que trouxe ganhos em redução de dimensionalidade e robustez.
+Na etapa seguinte, o fluxo de trabalho evoluiu para um Random Forest com normalização.
+Por fim, foi implantado um Random Forest ajustado, com otimização de hiperparâmetros.
+Cada configuração foi construída a partir da anterior, demonstrando como as Linhas de Experimentos permitem a evolução sistemática dos fluxos de trabalho.
+Este caso comprova a reprodutibilidade e a flexibilidade do DAL Toolbox em aplicações reais de ciência de dados.</t>
+  </si>
+  <si>
+    <t>A comparação de desempenho ilustra como cada iteração do modelo contribuiu para refinar o pipeline de previsão de chuvas.
+O classificador KNN inicial era simples e interpretável, mas apresentou baixa acurácia preditiva e dificuldade em lidar com dados ruidosos.
+O SVM combinado com PCA trouxe melhorias significativas ao reduzir a dimensionalidade e capturar relações não lineares, o que resultou em valores de recall mais elevados.
+O Random Forest introduziu uma estratégia de comitê (ensemble), equilibrando melhor precisão e recall, oferecendo um ponto intermediário robusto entre complexidade e desempenho.
+Por fim, o Random Forest ajustado com otimização de hiperparâmetros atingiu os melhores resultados gerais, com um F1-score de 0,948.
+Esse resultado demonstra que a exploração sistemática por meio das Linhas de Experimentos é muito superior a experimentos isolados e pontuais.
+Cada etapa do fluxo de trabalho não foi descartada, mas construída a partir do conhecimento obtido nas iterações anteriores.
+Essa abordagem evidencia como o DAL Toolbox promove a reprodutibilidade: cada alteração, cada experimento, é documentado e comparável.
+Os resultados confirmam que as Linhas de Experimentos não apenas aumentam a acurácia dos modelos, mas também aceleram o processo de pesquisa ao estruturar a forma como as alternativas são testadas.
+Na prática, essa metodologia apoia tanto a pesquisa acadêmica quanto aplicações na indústria, onde alto desempenho e reprodutibilidade são essenciais.</t>
+  </si>
+  <si>
+    <t>O DAL Toolbox é mais do que uma biblioteca isolada — é a fundação de um ecossistema em expansão.
+Seu design modular garante que os componentes independentes possam ser reutilizados, modificados e estendidos.
+A transparência é enfatizada, mantendo os fluxos de trabalho explícitos e interpretáveis.
+A reutilização entre projetos reduz o tempo de desenvolvimento e aumenta a produtividade.
+A reprodutibilidade assegura resultados consistentes em diferentes equipes e contextos.
+Além da toolbox central, extensões como o Harbinger oferecem suporte à detecção de eventos em séries temporais, enquanto o TSPredIT é voltado para previsão.
+O daltoolboxdp amplia a integração com pré-processamento baseado em Python.
+Juntas, essas bibliotecas demonstram como o DAL Toolbox atende a diversas necessidades analíticas, mantendo uma base experimental comum.</t>
+  </si>
+  <si>
+    <t>O DAL Toolbox representa um avanço no enfrentamento dos desafios de reprodutibilidade, transparência e experimentação sistemática em ciência de dados.
+Seu caráter open-source incentiva o desenvolvimento colaborativo e a adaptação às necessidades emergentes.
+Para a pesquisa, acelera a descoberta ao reduzir o tempo gasto na construção e na depuração de pipelines.
+Para a indústria, faz a ponte entre pipelines de pesquisa e sistemas de produção, garantindo transições mais suaves.
+Sua base em Linhas de Experimentos assegura que os fluxos de trabalho sejam não apenas reprodutíveis, mas também sistematicamente variáveis.
+Essa flexibilidade é essencial para projetos modernos de aprendizado de máquina que exigem rápida iteração.
+O futuro está na expansão da adoção, no crescimento do ecossistema e no fortalecimento da integração com outras plataformas.
+O convite está aberto: explore o repositório no GitHub, contribua e junte-se a uma comunidade que promove uma ciência de dados mais reprodutível.</t>
   </si>
 </sst>
 </file>
@@ -56,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +186,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -117,6 +238,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,37 +572,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>8.1018518518518516E-4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>6.7129629629629625E-4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>7.291666666666667E-4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6.7129629629629625E-4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6.7129629629629625E-4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1.1574074074074075E-4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1.1574074074074075E-4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1.0648148148148149E-3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6.5972222222222224E-4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/srt/video.xlsx
+++ b/srt/video.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\eogasawara\mylibrary\srt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Presentations\Packages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C1B27-049A-4BA0-8960-75B23AE39930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEBD83-D103-4A07-9596-6F5510E0506F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Duração</t>
   </si>
@@ -31,137 +31,75 @@
     <t>Inglês</t>
   </si>
   <si>
-    <t>This presentation introduces DAL Toolbox, a comprehensive open-source library designed to make data analytics workflows more modular, transparent, and reproducible._x000B_It was developed through collaboration between CEFET/RJ, LNCC and INRIA, reflecting an international research effort._x000B_The toolbox is openly available on GitHub, reinforcing its community-driven and academic character._x000B_Our goal here is to explain why DAL Toolbox was created, what problem it solves, and how it supports systematic experimentation._x000B_The foundation of the toolbox is Experiment Lines, a concept adapted from Software Product Lines._x000B_This framework allows researchers and practitioners to create families of experiments rather than isolated pipelines._x000B_It addresses the critical challenges of modern data analytics: growing complexity, need for reproducibility, and integration across diverse tools._x000B_By the end of this talk, you will see how DAL Toolbox can accelerate research, improve transparency, and support production-level adoption.</t>
-  </si>
-  <si>
-    <t>Today’s data-driven world involves high-frequency and high-volume streams across domains like finance, healthcare, urban mobility, and IoT._x000B_Traditional approaches struggle with the scale and heterogeneity of these datasets._x000B_Constructing workflows that are both complete and reproducible remains a major bottleneck._x000B_A key issue lies in integration: data scientists often juggle multiple libraries with different interfaces and dependencies._x000B_This increases the learning curve and leads to fragmented solutions._x000B_Transparency is another challenge: workflows must be clear and interpretable, not hidden inside opaque pipelines._x000B_Reusability is also essential—components should be easy to transfer between projects._x000B_Finally, workflows must support variability, allowing researchers to try multiple configurations without starting from scratch._x000B_DAL Toolbox was designed precisely to address these pain points.</t>
-  </si>
-  <si>
-    <t>The core innovation of DAL Toolbox is the application of Experiment Lines._x000B_Experiment Lines borrow ideas from Software Product Lines, enabling systematic reuse and controlled variation in workflows._x000B_In practice, this means that each component of a workflow—transformation, modeling, evaluation—can be optional, interchangeable, or parameterized._x000B_This flexibility allows us to configure entire families of experiments from a single base structure._x000B_It fundamentally changes how data scientists explore alternatives: instead of building new pipelines from scratch, they evolve workflows step by step._x000B_Variability and optionality ensure that workflows can adapt to different needs while preserving their core integrity._x000B_The result is more efficient research, reproducibility, and comparability across experiments._x000B_Experiment Lines thus transform workflow design from a rigid process into a systematic and transparent methodology.</t>
-  </si>
-  <si>
-    <t>The architecture of DAL Toolbox follows a modular design with clear separation of concerns._x000B_Each module—transformation, classification, regression, clustering, and visualization—serves a distinct purpose._x000B_Transformations include operations like normalization, scaling, and dimensionality reduction._x000B_Classification and regression modules support supervised learning tasks for both categorical and continuous outputs._x000B_Clustering enables unsupervised discovery of structures and patterns in data._x000B_Visualization tools allow users to interpret results through plots, histograms, scatter plots, and time series analysis._x000B_All modules interoperate seamlessly through a unified API._x000B_This modularity not only simplifies maintenance but also allows easy extension and integration with external libraries such as Scikit-learn.</t>
-  </si>
-  <si>
-    <t>DAL Toolbox offers practical functionality across the entire machine learning pipeline._x000B_For transformations, users can perform min-max scaling, z-score normalization, PCA, and feature selection._x000B_For modeling, the toolbox supports algorithms like KNN, linear regression, Random Forest, and SVM._x000B_Clustering options include K-Means, providing accessible methods for segmentation tasks._x000B_Visualization covers scatter plots for relationships, histograms for distributions, and line plots for time series._x000B_The unified API ensures that switching between models or transformations requires minimal code changes._x000B_This makes experimentation both flexible and consistent._x000B_Overall, DAL Toolbox provides a cohesive set of tools designed to work harmoniously within the Experiment Lines framework.</t>
-  </si>
-  <si>
-    <t>Several well-known platforms already support machine learning workflows, each with strengths and weaknesses._x000B_WEKA and Orange are excellent for education, thanks to user-friendly interfaces, but they lack flexibility for dynamic experiments._x000B_RapidMiner and KNIME provide modular graphical workflows, but their pipelines often sacrifice transparency._x000B_Scikit-learn and Spark MLlib are powerful and widely adopted, yet they lack systematic support for experimentation._x000B_In contrast, DAL Toolbox combines the strengths of transparency, modularity, and systematic variability._x000B_Its foundation on Experiment Lines allows for reproducible comparisons and structured exploration._x000B_This positions DAL Toolbox as a lightweight yet powerful alternative, especially for researchers focused on workflow reproducibility._x000B_It strikes a balance between usability, flexibility, and scientific rigor.</t>
-  </si>
-  <si>
-    <t>The case study illustrates DAL Toolbox in action using meteorological data from Florida airports._x000B_The task was rainfall prediction, leveraging features like temperature, wind speed, humidity, and sky coverage._x000B_The initial baseline used KNN directly on raw features without preprocessing._x000B_Next, SVM was applied with PCA, improving dimensionality reduction and robustness._x000B_The workflow then evolved into a Random Forest classifier with normalization._x000B_Finally, a tuned Random Forest was deployed with hyperparameter optimization._x000B_Each configuration built upon the previous one, showing how Experiment Lines enable systematic workflow evolution._x000B_This case demonstrates the reproducibility and flexibility of DAL Toolbox in real-world data science applications.</t>
-  </si>
-  <si>
-    <t>The performance comparison illustrates how each model iteration contributed to refining the rainfall prediction pipeline._x000B_The baseline KNN classifier was simple and interpretable, but it showed weak predictive accuracy and struggled with noisy data._x000B_The SVM combined with PCA provided significant improvements by reducing dimensionality and capturing non-linear relationships, which led to stronger recall values._x000B_Random Forest introduced an ensemble strategy that balanced precision and recall more effectively, offering a robust middle ground between complexity and performance._x000B_Finally, the tuned Random Forest with optimized hyperparameters achieved the best overall results, with an F1 score of 0.948._x000B_This result demonstrates that systematic exploration through Experiment Lines is far superior to isolated, one-off experiments._x000B_Each step in the workflow was not discarded but built upon the knowledge gained from earlier iterations._x000B_This approach showcases how DAL Toolbox promotes reproducibility: every change, every experiment, is documented and comparable._x000B_The results confirm that Experiment Lines not only improve model accuracy but also accelerate the research process by structuring how alternatives are tested._x000B_In practice, this methodology supports both academic research and industry applications where high performance and reproducibility are essential.</t>
-  </si>
-  <si>
-    <t>DAL Toolbox is more than a standalone library—it is the foundation of an expanding ecosystem._x000B_Its modular design ensures independent components can be reused, modified, and extended._x000B_Transparency is emphasized, with workflows kept explicit and interpretable._x000B_Reusability across projects reduces development time and increases productivity._x000B_Reproducibility ensures consistent results across different teams and contexts._x000B_Beyond the core toolbox, extensions like Harbinger support time series event detection, while TSPredIT focuses on forecasting._x000B_Daltoolboxdp enhances integration with Python-based preprocessing._x000B_Together, these libraries demonstrate how DAL Toolbox supports diverse analytical needs while maintaining a common experimental foundation.</t>
-  </si>
-  <si>
-    <t>DAL Toolbox represents a step forward in addressing reproducibility, transparency, and systematic experimentation in data science._x000B_Its open-source nature encourages community-driven development and adaptation to emerging needs._x000B_For research, it accelerates discovery by reducing the time spent on pipeline construction and debugging._x000B_For industry, it bridges research pipelines with production systems, ensuring smoother transitions._x000B_Its Experiment Lines foundation means workflows are not only reproducible but also systematically variable._x000B_This flexibility is critical for modern machine learning projects that require rapid iteration._x000B_The future lies in expanding adoption, growing the ecosystem, and strengthening integration with other platforms._x000B_The invitation is open: explore the GitHub repository, contribute, and join a community advancing reproducible data science.</t>
-  </si>
-  <si>
-    <t>Esta apresentação introduz o DAL Toolbox, uma biblioteca open-source abrangente, projetada para tornar os fluxos de trabalho em análise de dados mais modulares, transparentes e reprodutíveis.
-Ela foi desenvolvida em colaboração entre o CEFET/RJ, o LNCC e o INRIA, refletindo um esforço de pesquisa internacional.
-A toolbox está disponível abertamente no GitHub, reforçando seu caráter colaborativo e acadêmico.
-Nosso objetivo aqui é explicar por que o DAL Toolbox foi criado, qual problema ele resolve e como apoia a experimentação sistemática.
-A base da toolbox é o conceito de Linhas de Experimentos, adaptado das Linhas de Produto de Software.
-Esse framework permite que pesquisadores e profissionais criem famílias de experimentos, em vez de pipelines isolados.
-Ele aborda os desafios críticos da análise de dados moderna: a crescente complexidade, a necessidade de reprodutibilidade e a integração entre diversas ferramentas.
-Ao final desta apresentação, você verá como o DAL Toolbox pode acelerar a pesquisa, melhorar a transparência e apoiar a adoção em nível de produção.</t>
-  </si>
-  <si>
-    <t>O mundo atual, orientado por dados, envolve fluxos de alta frequência e alto volume em domínios como finanças, saúde, mobilidade urbana e IoT.
-As abordagens tradicionais têm dificuldades em lidar com a escala e a heterogeneidade desses conjuntos de dados.
-A construção de fluxos de trabalho que sejam ao mesmo tempo completos e reprodutíveis continua sendo um grande gargalo.
-Um ponto crítico está na integração: cientistas de dados frequentemente precisam lidar com múltiplas bibliotecas que possuem interfaces e dependências diferentes.
-Isso aumenta a curva de aprendizado e leva a soluções fragmentadas.
-A transparência também é um desafio: os fluxos de trabalho devem ser claros e interpretáveis, e não ficar escondidos dentro de pipelines opacos.
-A reutilização é igualmente essencial — os componentes precisam ser facilmente transferíveis entre projetos.
-Por fim, os fluxos de trabalho devem suportar variabilidade, permitindo que pesquisadores testem múltiplas configurações sem precisar começar do zero.
-O DAL Toolbox foi projetado exatamente para responder a esses pontos críticos.</t>
-  </si>
-  <si>
-    <t>A principal inovação do DAL Toolbox é a aplicação do conceito de Linhas de Experimentos.
-As Linhas de Experimentos se inspiram nas Linhas de Produto de Software, possibilitando a reutilização sistemática e a variação controlada em fluxos de trabalho.
-Na prática, isso significa que cada componente de um fluxo de trabalho — transformação, modelagem, avaliação — pode ser opcional, intercambiável ou parametrizado.
-Essa flexibilidade permite configurar famílias inteiras de experimentos a partir de uma única estrutura-base.
-Isso muda fundamentalmente a forma como cientistas de dados exploram alternativas: em vez de construir novos pipelines do zero, eles evoluem os fluxos de trabalho passo a passo.
-A variabilidade e a opcionalidade garantem que os fluxos de trabalho se adaptem a diferentes necessidades sem perder a integridade central.
-O resultado é uma pesquisa mais eficiente, reprodutível e comparável entre experimentos.
-Assim, as Linhas de Experimentos transformam o design de fluxos de trabalho de um processo rígido em uma metodologia sistemática e transparente.</t>
-  </si>
-  <si>
-    <t>A arquitetura do DAL Toolbox segue um design modular, com clara separação de responsabilidades.
-Cada módulo — transformação, classificação, regressão, agrupamento (clustering) e visualização — cumpre uma função distinta.
-As transformações incluem operações como normalização, escalonamento e redução de dimensionalidade.
-Os módulos de classificação e regressão oferecem suporte a tarefas de aprendizado supervisionado, tanto para saídas categóricas quanto contínuas.
-O módulo de clustering possibilita a descoberta não supervisionada de estruturas e padrões nos dados.
-As ferramentas de visualização permitem interpretar resultados por meio de gráficos, histogramas, diagramas de dispersão e análise de séries temporais.
-Todos os módulos interoperam de forma integrada através de uma API unificada.
-Essa modularidade não apenas simplifica a manutenção, como também facilita a extensão e a integração com bibliotecas externas, como o Scikit-learn.</t>
-  </si>
-  <si>
-    <t>O DAL Toolbox oferece funcionalidades práticas ao longo de todo o pipeline de aprendizado de máquina.
-Para transformações, os usuários podem realizar escalonamento min-max, normalização z-score, análise de componentes principais (PCA) e seleção de atributos.
-Para modelagem, a toolbox suporta algoritmos como KNN, regressão linear, Random Forest e SVM.
-Nas opções de clustering, inclui o K-Means, oferecendo métodos acessíveis para tarefas de segmentação.
-Na parte de visualização, estão disponíveis diagramas de dispersão para analisar relações, histogramas para distribuições e gráficos de linha para séries temporais.
-A API unificada garante que a troca entre modelos ou transformações exija mudanças mínimas de código.
-Isso torna a experimentação ao mesmo tempo flexível e consistente.
-De forma geral, o DAL Toolbox fornece um conjunto coeso de ferramentas, projetadas para funcionar de maneira harmoniosa dentro do framework de Linhas de Experimentos.</t>
-  </si>
-  <si>
-    <t>Diversas plataformas já conhecidas oferecem suporte a fluxos de trabalho em aprendizado de máquina, cada uma com seus pontos fortes e fracos.
-WEKA e Orange são excelentes para fins educacionais, graças às interfaces amigáveis, mas carecem de flexibilidade para experimentos dinâmicos.
-RapidMiner e KNIME fornecem fluxos de trabalho gráficos modulares, porém, seus pipelines muitas vezes sacrificam a transparência.
-Scikit-learn e Spark MLlib são poderosos e amplamente adotados, mas não oferecem suporte sistemático à experimentação.
-Em contraste, o DAL Toolbox combina as forças da transparência, modularidade e variabilidade sistemática.
-Sua base em Linhas de Experimentos permite comparações reprodutíveis e uma exploração estruturada.
-Isso posiciona o DAL Toolbox como uma alternativa leve, mas poderosa, especialmente para pesquisadores focados na reprodutibilidade de fluxos de trabalho.
-Ele encontra um equilíbrio entre usabilidade, flexibilidade e rigor científico.</t>
-  </si>
-  <si>
-    <t>O estudo de caso ilustra o DAL Toolbox em ação utilizando dados meteorológicos de aeroportos da Flórida.
-A tarefa consistiu na previsão de chuvas, explorando variáveis como temperatura, velocidade do vento, umidade e cobertura do céu.
-O baseline inicial utilizou o algoritmo KNN diretamente sobre as variáveis brutas, sem pré-processamento.
-Em seguida, aplicou-se o SVM com PCA, o que trouxe ganhos em redução de dimensionalidade e robustez.
-Na etapa seguinte, o fluxo de trabalho evoluiu para um Random Forest com normalização.
-Por fim, foi implantado um Random Forest ajustado, com otimização de hiperparâmetros.
-Cada configuração foi construída a partir da anterior, demonstrando como as Linhas de Experimentos permitem a evolução sistemática dos fluxos de trabalho.
-Este caso comprova a reprodutibilidade e a flexibilidade do DAL Toolbox em aplicações reais de ciência de dados.</t>
-  </si>
-  <si>
-    <t>A comparação de desempenho ilustra como cada iteração do modelo contribuiu para refinar o pipeline de previsão de chuvas.
-O classificador KNN inicial era simples e interpretável, mas apresentou baixa acurácia preditiva e dificuldade em lidar com dados ruidosos.
-O SVM combinado com PCA trouxe melhorias significativas ao reduzir a dimensionalidade e capturar relações não lineares, o que resultou em valores de recall mais elevados.
-O Random Forest introduziu uma estratégia de comitê (ensemble), equilibrando melhor precisão e recall, oferecendo um ponto intermediário robusto entre complexidade e desempenho.
-Por fim, o Random Forest ajustado com otimização de hiperparâmetros atingiu os melhores resultados gerais, com um F1-score de 0,948.
-Esse resultado demonstra que a exploração sistemática por meio das Linhas de Experimentos é muito superior a experimentos isolados e pontuais.
-Cada etapa do fluxo de trabalho não foi descartada, mas construída a partir do conhecimento obtido nas iterações anteriores.
-Essa abordagem evidencia como o DAL Toolbox promove a reprodutibilidade: cada alteração, cada experimento, é documentado e comparável.
-Os resultados confirmam que as Linhas de Experimentos não apenas aumentam a acurácia dos modelos, mas também aceleram o processo de pesquisa ao estruturar a forma como as alternativas são testadas.
-Na prática, essa metodologia apoia tanto a pesquisa acadêmica quanto aplicações na indústria, onde alto desempenho e reprodutibilidade são essenciais.</t>
-  </si>
-  <si>
-    <t>O DAL Toolbox é mais do que uma biblioteca isolada — é a fundação de um ecossistema em expansão.
-Seu design modular garante que os componentes independentes possam ser reutilizados, modificados e estendidos.
-A transparência é enfatizada, mantendo os fluxos de trabalho explícitos e interpretáveis.
-A reutilização entre projetos reduz o tempo de desenvolvimento e aumenta a produtividade.
-A reprodutibilidade assegura resultados consistentes em diferentes equipes e contextos.
-Além da toolbox central, extensões como o Harbinger oferecem suporte à detecção de eventos em séries temporais, enquanto o TSPredIT é voltado para previsão.
-O daltoolboxdp amplia a integração com pré-processamento baseado em Python.
-Juntas, essas bibliotecas demonstram como o DAL Toolbox atende a diversas necessidades analíticas, mantendo uma base experimental comum.</t>
-  </si>
-  <si>
-    <t>O DAL Toolbox representa um avanço no enfrentamento dos desafios de reprodutibilidade, transparência e experimentação sistemática em ciência de dados.
-Seu caráter open-source incentiva o desenvolvimento colaborativo e a adaptação às necessidades emergentes.
-Para a pesquisa, acelera a descoberta ao reduzir o tempo gasto na construção e na depuração de pipelines.
-Para a indústria, faz a ponte entre pipelines de pesquisa e sistemas de produção, garantindo transições mais suaves.
-Sua base em Linhas de Experimentos assegura que os fluxos de trabalho sejam não apenas reprodutíveis, mas também sistematicamente variáveis.
-Essa flexibilidade é essencial para projetos modernos de aprendizado de máquina que exigem rápida iteração.
-O futuro está na expansão da adoção, no crescimento do ecossistema e no fortalecimento da integração com outras plataformas.
-O convite está aberto: explore o repositório no GitHub, contribua e junte-se a uma comunidade que promove uma ciência de dados mais reprodutível.</t>
+    <t>Most algorithms require numeric inputs. Raw categories like colors or labels cannot be processed directly. If categories are encoded as integers, algorithms may assume a false order. For instance, 'red=1, blue=2, green=3' implies that blue is greater than red. This introduces relationships that do not exist. One-hot encoding solves this by creating separate binary columns. Each column represents the presence of a specific category. This transformation is critical for linear models and neural networks. Without it, models may learn incorrect patterns.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A maioria dos algoritmos requer entradas numéricas. Categorias brutas, como cores ou rótulos, não podem ser processadas diretamente. Se as categorias forem codificadas como números inteiros, os algoritmos podem assumir uma ordem falsa. Por exemplo, “vermelho = 1, azul = 2, verde = 3” implica que azul é maior que vermelho. Isso introduz relações que não existem. A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>codificação one-hot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> resolve esse problema criando colunas binárias separadas. Cada coluna representa a presença de uma categoria específica. Essa transformação é fundamental para modelos lineares e redes neurais. Sem ela, os modelos podem aprender padrões incorretos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data quality is the cornerstone of any machine learning project. Without proper cleaning and representation, algorithms cannot produce reliable results. Data cleaning systematically removes errors, inconsistencies, and noise from raw datasets. Representation ensures that algorithms can interpret variables in a meaningful way. The DAL Toolbox provides functions that make these steps reproducible. In this talk, we will cover missing value handling and categorical encoding. These are the two most common issues encountered during preprocessing. By addressing them properly, we establish the foundation for accurate models.</t>
+  </si>
+  <si>
+    <t>A qualidade dos dados é a base de qualquer projeto de aprendizado de máquina. Sem uma limpeza e representação adequadas, os algoritmos não conseguem produzir resultados confiáveis. A limpeza de dados remove sistematicamente erros, inconsistências e ruídos dos conjuntos de dados brutos. A representação garante que os algoritmos possam interpretar as variáveis de forma significativa. A DAL Toolbox oferece funções que tornam essas etapas reprodutíveis. Nesta apresentação, abordaremos o tratamento de valores ausentes e a codificação de variáveis categóricas — os dois problemas mais comuns encontrados durante o pré-processamento. Ao tratá-los corretamente, estabelecemos a base para modelos mais precisos.</t>
+  </si>
+  <si>
+    <t>Missing values often arise from survey errors, sensor failures, or incomplete records. Understanding the cause is critical for choosing the right strategy. If missingness is not random, analysis may become biased. For example, certain groups may systematically omit responses. Algorithms that receive NA values often fail or silently produce wrong results. Preprocessing ensures that models can be trained without interruption. Two main strategies exist: removal and imputation. Each has trade-offs, and the choice depends on the dataset and the problem context.</t>
+  </si>
+  <si>
+    <t>Valores ausentes surgem frequentemente de erros em pesquisas, falhas de sensores ou registros incompletos. Compreender a causa é fundamental para escolher a estratégia correta. Se a ausência de dados não for aleatória, a análise pode se tornar enviesada — por exemplo, certos grupos podem omitir respostas de forma sistemática. Algoritmos que recebem valores NA costumam falhar ou produzir resultados incorretos sem aviso. O pré-processamento garante que os modelos possam ser treinados sem interrupções. Existem duas estratégias principais: remoção e imputação. Cada uma tem seus prós e contras, e a escolha depende do conjunto de dados e do contexto do problema.</t>
+  </si>
+  <si>
+    <t>In this example, we artificially introduce a missing value into the iris dataset. We then use the na.omit function to remove rows containing NAs. The dataset size changes from 150 to 149 rows. This simple approach ensures that no NA remains in the data. However, it is important to emphasize that valuable information may be lost. Removing rows reduces sample size, which may affect results. This method is suitable for quick exploration but not always for production. The full code is available in the DAL Toolbox GitHub repository.</t>
+  </si>
+  <si>
+    <t>Neste exemplo, introduzimos artificialmente um valor ausente no conjunto de dados iris. Em seguida, utilizamos a função na.omit para remover as linhas que contêm valores NA. O tamanho do conjunto de dados muda de 150 para 149 linhas. Essa abordagem simples garante que nenhum NA permaneça nos dados. No entanto, é importante destacar que informações valiosas podem ser perdidas. A remoção de linhas reduz o tamanho da amostra, o que pode afetar os resultados. Esse método é adequado para uma análise exploratória rápida, mas nem sempre é indicado para aplicações em produção. O código completo está disponível no repositório GitHub da DAL Toolbox.</t>
+  </si>
+  <si>
+    <t>Removing missing values is fast and convenient. It can be done in a single line of code. However, this speed comes at the cost of precision. Entire rows may be discarded even if only one value is missing. If missingness follows a systematic pattern, deletion amplifies bias. For example, if high-income individuals skip income questions, results become skewed. This method works best when missingness is rare and random. For production systems, imputation is often a better choice. Always balance speed and reliability when choosing this strategy</t>
+  </si>
+  <si>
+    <t>Remover valores ausentes é um processo rápido e conveniente, que pode ser realizado em uma única linha de código. No entanto, essa agilidade vem com um custo em termos de precisão. Linhas inteiras podem ser descartadas mesmo que apenas um valor esteja ausente. Se a ausência de dados seguir um padrão sistemático, a exclusão pode amplificar o viés. Por exemplo, se pessoas de alta renda pularem perguntas sobre renda, os resultados ficarão distorcidos. Esse método funciona melhor quando a ausência de dados é rara e aleatória. Para sistemas de produção, a imputação geralmente é a opção mais adequada. É essencial equilibrar velocidade e confiabilidade ao escolher essa estratégia.</t>
+  </si>
+  <si>
+    <t>Using the DAL Toolbox, we apply the categ_mapping function to the Species column of the iris dataset. This transformation creates three binary columns, one for each species. Each row receives a value of one in the correct column and zero in the others. This guarantees that categories are represented independently. The mapping object can be reused consistently across training and test sets. This is essential for reproducible experiments and deployment. The slide shows only part of the implementation. The complete code is available in the DAL Toolbox GitHub repository.</t>
+  </si>
+  <si>
+    <t>Usando a DAL Toolbox, aplicamos a função categ_mapping à coluna Species do conjunto de dados iris. Essa transformação cria três colunas binárias, uma para cada espécie. Cada linha recebe o valor 1 na coluna correspondente e 0 nas demais. Isso garante que as categorias sejam representadas de forma independente. O objeto de mapeamento pode ser reutilizado de maneira consistente entre os conjuntos de treino e teste — algo essencial para experimentos reprodutíveis e para a implantação em produção. O slide mostra apenas uma parte da implementação; o código completo está disponível no repositório GitHub da DAL Toolbox.</t>
+  </si>
+  <si>
+    <t>One-hot encoding is the safest default choice for most algorithms. It prevents false order and works with linear and neural models. Its drawback is high dimensionality when categories are many. Label encoding is simpler but risky for models sensitive to ordering. It is suitable for tree-based models that do not assume numeric order. Target encoding replaces categories with aggregated values. This works well with high-cardinality variables. However, it may cause data leakage if applied incorrectly. Choosing the right encoding depends on the model and dataset.</t>
+  </si>
+  <si>
+    <t>A codificação one-hot é a opção padrão mais segura para a maioria dos algoritmos. Ela evita ordens falsas e funciona bem com modelos lineares e redes neurais. Seu ponto negativo é a alta dimensionalidade quando há muitas categorias. A codificação por rótulos (label encoding) é mais simples, mas arriscada em modelos sensíveis à ordem numérica. Ela é adequada para modelos baseados em árvores, que não assumem relação de ordem entre os valores. Já a codificação por alvo (target encoding) substitui as categorias por valores agregados e funciona bem em variáveis com alta cardinalidade. No entanto, pode causar vazamento de informação (data leakage) se aplicada de forma incorreta. A escolha da técnica ideal de codificação depende do modelo utilizado e das características do conjunto de dados.</t>
+  </si>
+  <si>
+    <t>Data cleaning is the foundation of reliable machine learning. NA removal is fast but may reduce dataset size and introduce bias. Categorical mapping ensures that variables are properly represented. Encoding strategy must align with the chosen algorithm. One-hot is safe for most models, while label encoding works with trees. Target encoding requires care to avoid leakage. Preprocessing decisions must always match the data and context. By applying these steps, we ensure clean inputs and trustworthy models.</t>
+  </si>
+  <si>
+    <t>A limpeza de dados é a base para um aprendizado de máquina confiável. A remoção de valores ausentes é rápida, mas pode reduzir o tamanho do conjunto de dados e introduzir viés. O mapeamento de variáveis categóricas garante que as variáveis sejam representadas corretamente. A estratégia de codificação deve estar alinhada ao algoritmo escolhido: a one-hot é segura para a maioria dos modelos, enquanto a label encoding funciona bem com modelos baseados em árvores. A target encoding exige cuidado para evitar vazamento de informação (data leakage). As decisões de pré-processamento devem sempre refletir o tipo de dado e o contexto da análise. Ao aplicar essas etapas, garantimos entradas limpas e modelos confiáveis.</t>
   </si>
 </sst>
 </file>
@@ -229,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -243,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,112 +515,90 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>8.1018518518518516E-4</v>
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>6.7129629629629625E-4</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>7.291666666666667E-4</v>
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>6.134259259259259E-4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>4.5138888888888887E-4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>6.7129629629629625E-4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>4.5138888888888887E-4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>6.7129629629629625E-4</v>
+        <v>4.2824074074074075E-4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>6.134259259259259E-4</v>
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>1.0648148148148149E-3</v>
+        <v>3.8194444444444446E-4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>6.134259259259259E-4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6.5972222222222224E-4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
